--- a/me/1.training_sass/07-Rules-and-Directives.xlsx
+++ b/me/1.training_sass/07-Rules-and-Directives.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F7029F-8316-456B-982C-0C8BAC50FAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1FAC6-5DC8-451D-9571-509DF0EB265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
+    <sheet name="Media" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
   <si>
     <t>構成</t>
   </si>
@@ -104,6 +105,276 @@
   </si>
   <si>
     <t>Khi không muốn biên dịch variables.scss thành file css vì nó chỉ cần include vào file main.scss</t>
+  </si>
+  <si>
+    <t>2.Media</t>
+  </si>
+  <si>
+    <t>01-media.scss</t>
+  </si>
+  <si>
+    <t>// 0 - 1000</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 1000px) {</t>
+  </si>
+  <si>
+    <t>    body {</t>
+  </si>
+  <si>
+    <t>        background-color: red;  </t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>// 800px - 1000</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 800px) and (max-width: 1000px) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        background-color: yellow;   </t>
+  </si>
+  <si>
+    <t>// 500px - 800px</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 500px) and (max-width: 800px)  {</t>
+  </si>
+  <si>
+    <t>        background-color: blue ;    </t>
+  </si>
+  <si>
+    <t>// ngang</t>
+  </si>
+  <si>
+    <t>@media all and (orientation: landscape) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        //background-color: pink;   </t>
+  </si>
+  <si>
+    <t>01-media.css</t>
+  </si>
+  <si>
+    <t>  body {</t>
+  </si>
+  <si>
+    <t>    background-color: red; } }</t>
+  </si>
+  <si>
+    <t>    background-color: yellow; } }</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 500px) and (max-width: 800px) {</t>
+  </si>
+  <si>
+    <t>    background-color: blue; } }</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>02-exe.scss</t>
+  </si>
+  <si>
+    <t>* {</t>
+  </si>
+  <si>
+    <t>    margin: 0px;</t>
+  </si>
+  <si>
+    <t>    padding: 0px;</t>
+  </si>
+  <si>
+    <t>div.container {</t>
+  </si>
+  <si>
+    <t>    width: 90%;</t>
+  </si>
+  <si>
+    <t>    margin: 10px auto;</t>
+  </si>
+  <si>
+    <t>div.container &gt; div {</t>
+  </si>
+  <si>
+    <t>    height: 100px;</t>
+  </si>
+  <si>
+    <t>    line-height: 100px;</t>
+  </si>
+  <si>
+    <t>div.container &gt; div.header {</t>
+  </si>
+  <si>
+    <t>    background-color: #e3f27e;</t>
+  </si>
+  <si>
+    <t>div.container &gt; div.left {</t>
+  </si>
+  <si>
+    <t>    background-color: #458c63;</t>
+  </si>
+  <si>
+    <t>div.container &gt; div.right {</t>
+  </si>
+  <si>
+    <t>    background-color: #7d8ee2;</t>
+  </si>
+  <si>
+    <t>div.container &gt; div.footer {</t>
+  </si>
+  <si>
+    <t>    background-color: #c56a90;</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 1000px){</t>
+  </si>
+  <si>
+    <t>    div.container &gt; div.left {</t>
+  </si>
+  <si>
+    <t>        width: 70%;</t>
+  </si>
+  <si>
+    <t>        float: left;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    div.container &gt; div.right {</t>
+  </si>
+  <si>
+    <t>        width: 30%;</t>
+  </si>
+  <si>
+    <t>        float: right;</t>
+  </si>
+  <si>
+    <t>    div.container &gt; div.footer {</t>
+  </si>
+  <si>
+    <t>        clear: both;</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 750px) and (max-width: 1000px){</t>
+  </si>
+  <si>
+    <t>        width: 50%;</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 450px) and (max-width: 750px){</t>
+  </si>
+  <si>
+    <t>    div.container &gt; div {</t>
+  </si>
+  <si>
+    <t>        width: 100%;</t>
+  </si>
+  <si>
+    <t>        display: block;</t>
+  </si>
+  <si>
+    <t>@media all and (max-width: 450px){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    div.container &gt; div.header, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    div.container &gt; div.right, </t>
+  </si>
+  <si>
+    <t>        display: none;</t>
+  </si>
+  <si>
+    <t>02-exe.css</t>
+  </si>
+  <si>
+    <t>  margin: 0px;</t>
+  </si>
+  <si>
+    <t>  padding: 0px; }</t>
+  </si>
+  <si>
+    <t>  width: 90%;</t>
+  </si>
+  <si>
+    <t>  margin: 10px auto; }</t>
+  </si>
+  <si>
+    <t>  height: 100px;</t>
+  </si>
+  <si>
+    <t>  line-height: 100px; }</t>
+  </si>
+  <si>
+    <t>  background-color: #e3f27e; }</t>
+  </si>
+  <si>
+    <t>  background-color: #458c63; }</t>
+  </si>
+  <si>
+    <t>  background-color: #7d8ee2; }</t>
+  </si>
+  <si>
+    <t>  background-color: #c56a90; }</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div.left {</t>
+  </si>
+  <si>
+    <t>    width: 70%;</t>
+  </si>
+  <si>
+    <t>    float: left; }</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div.right {</t>
+  </si>
+  <si>
+    <t>    width: 30%;</t>
+  </si>
+  <si>
+    <t>    float: right; }</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div.footer {</t>
+  </si>
+  <si>
+    <t>    clear: both; } }</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 750px) and (max-width: 1000px) {</t>
+  </si>
+  <si>
+    <t>    width: 50%;</t>
+  </si>
+  <si>
+    <t>@media all and (min-width: 450px) and (max-width: 750px) {</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div {</t>
+  </si>
+  <si>
+    <t>    width: 100%;</t>
+  </si>
+  <si>
+    <t>    display: block; } }</t>
+  </si>
+  <si>
+    <t>@media all and (max-width: 450px) {</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div.header,</t>
+  </si>
+  <si>
+    <t>  div.container &gt; div.right,</t>
+  </si>
+  <si>
+    <t>    display: none; }</t>
   </si>
 </sst>
 </file>
@@ -126,12 +397,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -263,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -280,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,6 +628,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208774</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>132932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F6F249-AAD9-C287-B3CB-C5021627BEB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="12601575"/>
+          <a:ext cx="6209524" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -620,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,4 +1260,2296 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCD1242-8D6E-48A6-B936-97D424DD86A8}">
+  <dimension ref="A2:M246"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="P240" sqref="P240"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="5"/>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="6"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G187" s="7"/>
+      <c r="H187" s="9"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/07-Rules-and-Directives.xlsx
+++ b/me/1.training_sass/07-Rules-and-Directives.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A1FAC6-5DC8-451D-9571-509DF0EB265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E5085-3248-4EF0-811D-294423CA1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
     <sheet name="Media" sheetId="2" r:id="rId2"/>
+    <sheet name="Extend" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="181">
   <si>
     <t>構成</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>$color-red: #F1234D;</t>
-  </si>
-  <si>
-    <t>@import "./variables";</t>
   </si>
   <si>
     <t>→Add project, Output Folder</t>
@@ -375,6 +373,508 @@
   </si>
   <si>
     <t>    display: none; }</t>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t "./variables";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>media</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all and (min-width: 1000px) {</t>
+    </r>
+  </si>
+  <si>
+    <t>3.Extend</t>
+  </si>
+  <si>
+    <t>01-basic.scss</t>
+  </si>
+  <si>
+    <t>.error {</t>
+  </si>
+  <si>
+    <t>border: 1px #f00;</t>
+  </si>
+  <si>
+    <t>background-color: #fdd;</t>
+  </si>
+  <si>
+    <t>.seriousError {</t>
+  </si>
+  <si>
+    <t>border-width: 3px;</t>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .error;</t>
+    </r>
+  </si>
+  <si>
+    <t>01-basic.css</t>
+  </si>
+  <si>
+    <t>.error, .seriousError {</t>
+  </si>
+  <si>
+    <t>  border: 1px #f00;</t>
+  </si>
+  <si>
+    <t>  background-color: #fdd; }</t>
+  </si>
+  <si>
+    <t>  border-width: 3px; }</t>
+  </si>
+  <si>
+    <r>
+      <t>.error, .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seriousError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>02-multi.scss</t>
+  </si>
+  <si>
+    <t>    border: 1px #f00;</t>
+  </si>
+  <si>
+    <t>    background-color: #fdd;</t>
+  </si>
+  <si>
+    <t>.attention {</t>
+  </si>
+  <si>
+    <t>    font-size: 3em;</t>
+  </si>
+  <si>
+    <t>    background-color: #ff0;</t>
+  </si>
+  <si>
+    <t>    border-width: 3px;</t>
+  </si>
+  <si>
+    <r>
+      <t>    @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .error;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .attention;</t>
+    </r>
+  </si>
+  <si>
+    <t>02-multi.css</t>
+  </si>
+  <si>
+    <t>.attention, .seriousError {</t>
+  </si>
+  <si>
+    <t>  font-size: 3em;</t>
+  </si>
+  <si>
+    <t>  background-color: #ff0; }</t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seriousError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>03-chaining.scss</t>
+  </si>
+  <si>
+    <t>.criticalError {</t>
+  </si>
+  <si>
+    <t>    position: fixed;</t>
+  </si>
+  <si>
+    <t>    top: 10%;</t>
+  </si>
+  <si>
+    <t>    bottom: 10%;</t>
+  </si>
+  <si>
+    <t>    left: 10%;</t>
+  </si>
+  <si>
+    <t>    right: 10%;</t>
+  </si>
+  <si>
+    <r>
+      <t>    @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .seriousError;</t>
+    </r>
+  </si>
+  <si>
+    <t>03-chaining.css</t>
+  </si>
+  <si>
+    <t>.error, .seriousError, .criticalError {</t>
+  </si>
+  <si>
+    <t>.seriousError, .criticalError {</t>
+  </si>
+  <si>
+    <t>  position: fixed;</t>
+  </si>
+  <si>
+    <t>  top: 10%;</t>
+  </si>
+  <si>
+    <t>  bottom: 10%;</t>
+  </si>
+  <si>
+    <t>  left: 10%;</t>
+  </si>
+  <si>
+    <t>  right: 10%; }</t>
+  </si>
+  <si>
+    <t>04-sequences.scss</t>
+  </si>
+  <si>
+    <t>#fake-links .link {</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>a {</t>
+  </si>
+  <si>
+    <t>    color: blue;</t>
+  </si>
+  <si>
+    <t>        text-decoration: underline;</t>
+  </si>
+  <si>
+    <r>
+      <t>    @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:hover {</t>
+    </r>
+  </si>
+  <si>
+    <t>04-sequences.css</t>
+  </si>
+  <si>
+    <t>a, #fake-links .link {</t>
+  </si>
+  <si>
+    <t>  color: blue; }</t>
+  </si>
+  <si>
+    <t>    text-decoration: underline; }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  a:hover, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#fake-links .link:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>05-special.scss</t>
+  </si>
+  <si>
+    <t>    font-weight: bold;</t>
+  </si>
+  <si>
+    <t>    font-size: 2em;</t>
+  </si>
+  <si>
+    <t>.notice {</t>
+  </si>
+  <si>
+    <t>    @extend %extreme;</t>
+  </si>
+  <si>
+    <t>  color: blue;</t>
+  </si>
+  <si>
+    <t>  font-weight: bold;</t>
+  </si>
+  <si>
+    <t>  font-size: 2em; }</t>
+  </si>
+  <si>
+    <r>
+      <t>#context a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%extreme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>#context a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>05-special.css</t>
+  </si>
+  <si>
+    <t>%extreme =&gt; .notice</t>
   </si>
 </sst>
 </file>
@@ -397,7 +897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -558,6 +1064,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,6 +1187,859 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7B78E1-D26A-3732-ABF7-D7FD6AA55CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="3352800"/>
+          <a:ext cx="133350" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3256A7EB-E652-C051-400C-B190C45C883D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="3371850"/>
+          <a:ext cx="9525" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C430FB5-8198-0843-83F0-6FD8DDACB4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="11982450"/>
+          <a:ext cx="123825" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C132EB03-6FDC-6120-4373-816E7E1528F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="12144375"/>
+          <a:ext cx="95250" cy="3324225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FF0E6E-9EAA-C98B-78B5-79C1DA301F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="2466975"/>
+          <a:ext cx="1057275" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F15C40-2878-84AB-A0B1-BEDB11802026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="9858375"/>
+          <a:ext cx="657225" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61366CED-353A-540A-C0BE-BB4F1C1D45C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="10839450"/>
+          <a:ext cx="657225" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F515B8F3-4699-B2C4-38E4-2CEAFDB1BC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="19202400"/>
+          <a:ext cx="638175" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B094EF0E-36F0-8EBD-D300-FD1965936390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="19973925"/>
+          <a:ext cx="476250" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3167C55B-2A39-B65C-A3C4-EEE9ECDF91DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1447800" y="20173950"/>
+          <a:ext cx="95250" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215C99FB-37AE-2362-A776-3F6213FED60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="20926425"/>
+          <a:ext cx="504825" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38E963B-68DD-7E3D-22AA-6ECB229A8D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1800225" y="20935950"/>
+          <a:ext cx="19050" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E99FD74-FAE5-584A-2ABD-15ECBDAAB6E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="666750" y="30241875"/>
+          <a:ext cx="666750" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26B42FC-E270-5434-87EE-A9B44EB44C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="30289500"/>
+          <a:ext cx="190500" cy="4010025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B07CDC5-2468-3292-D6E5-3F4AF2D98518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="31222950"/>
+          <a:ext cx="390525" cy="3495675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B0D4D2-E590-4823-938D-9081B64F62E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1409700" y="37880925"/>
+          <a:ext cx="95250" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -947,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K16" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +2365,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="5"/>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1034,11 +2397,11 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5"/>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1058,7 +2421,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="9"/>
       <c r="K10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1076,7 +2439,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1213,7 +2576,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -1266,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCD1242-8D6E-48A6-B936-97D424DD86A8}">
   <dimension ref="A2:M246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="P240" sqref="P240"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,13 +2678,13 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="5"/>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,7 +2705,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1357,12 +2720,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1372,8 +2735,8 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>23</v>
+      <c r="B14" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1384,7 +2747,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1395,7 +2758,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1406,7 +2769,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1437,7 +2800,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1448,7 +2811,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1459,7 +2822,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1470,7 +2833,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1481,7 +2844,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1512,7 +2875,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1523,7 +2886,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1534,7 +2897,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1545,7 +2908,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1556,7 +2919,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1587,7 +2950,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1598,7 +2961,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1609,7 +2972,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1620,7 +2983,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1631,7 +2994,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1694,7 +3057,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -1718,7 +3081,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -1737,19 +3100,19 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="9"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1760,7 +3123,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1771,7 +3134,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1791,7 +3154,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1802,7 +3165,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1813,7 +3176,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1833,7 +3196,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -1844,7 +3207,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -1855,7 +3218,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -1880,7 +3243,7 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -1926,13 +3289,13 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="5"/>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,7 +3316,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92" s="5"/>
     </row>
@@ -1968,12 +3331,12 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1984,7 +3347,7 @@
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -1995,7 +3358,7 @@
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -2026,7 +3389,7 @@
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -2037,7 +3400,7 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -2048,7 +3411,7 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -2079,7 +3442,7 @@
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -2090,7 +3453,7 @@
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -2101,7 +3464,7 @@
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -2132,7 +3495,7 @@
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -2143,7 +3506,7 @@
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -2174,7 +3537,7 @@
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -2185,7 +3548,7 @@
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -2216,7 +3579,7 @@
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -2227,7 +3590,7 @@
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -2258,7 +3621,7 @@
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -2269,7 +3632,7 @@
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -2300,7 +3663,7 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -2311,7 +3674,7 @@
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -2322,7 +3685,7 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -2333,7 +3696,7 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -2344,7 +3707,7 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -2355,7 +3718,7 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -2366,7 +3729,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -2377,7 +3740,7 @@
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -2388,7 +3751,7 @@
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
@@ -2399,7 +3762,7 @@
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -2410,7 +3773,7 @@
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
@@ -2421,7 +3784,7 @@
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -2432,7 +3795,7 @@
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
@@ -2443,7 +3806,7 @@
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
@@ -2474,7 +3837,7 @@
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -2485,7 +3848,7 @@
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
@@ -2496,7 +3859,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -2507,7 +3870,7 @@
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -2518,7 +3881,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -2529,7 +3892,7 @@
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
@@ -2540,7 +3903,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -2551,7 +3914,7 @@
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -2562,7 +3925,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -2573,7 +3936,7 @@
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -2584,7 +3947,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -2595,7 +3958,7 @@
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -2606,7 +3969,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
@@ -2617,7 +3980,7 @@
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -2648,7 +4011,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -2659,7 +4022,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -2670,7 +4033,7 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -2681,7 +4044,7 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -2692,7 +4055,7 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -2723,7 +4086,7 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -2734,7 +4097,7 @@
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -2745,7 +4108,7 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -2756,7 +4119,7 @@
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -2767,7 +4130,7 @@
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -2778,7 +4141,7 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -2789,7 +4152,7 @@
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -2800,7 +4163,7 @@
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -2811,7 +4174,7 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -2822,7 +4185,7 @@
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -2833,7 +4196,7 @@
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -2896,7 +4259,7 @@
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
@@ -2920,7 +4283,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H186" s="5"/>
     </row>
@@ -2930,19 +4293,19 @@
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G187" s="7"/>
       <c r="H187" s="9"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -2953,7 +4316,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B191" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -2964,7 +4327,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B192" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -2984,7 +4347,7 @@
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -2995,7 +4358,7 @@
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -3006,7 +4369,7 @@
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -3026,7 +4389,7 @@
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
@@ -3037,7 +4400,7 @@
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
@@ -3048,7 +4411,7 @@
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -3068,7 +4431,7 @@
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -3079,7 +4442,7 @@
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
@@ -3099,7 +4462,7 @@
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -3110,7 +4473,7 @@
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -3130,7 +4493,7 @@
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -3141,7 +4504,7 @@
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
@@ -3161,7 +4524,7 @@
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -3172,7 +4535,7 @@
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -3192,7 +4555,7 @@
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -3203,7 +4566,7 @@
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -3214,7 +4577,7 @@
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -3225,7 +4588,7 @@
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
@@ -3236,7 +4599,7 @@
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -3247,7 +4610,7 @@
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -3258,7 +4621,7 @@
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -3269,7 +4632,7 @@
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
@@ -3280,7 +4643,7 @@
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -3300,7 +4663,7 @@
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -3311,7 +4674,7 @@
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -3322,7 +4685,7 @@
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -3333,7 +4696,7 @@
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -3344,7 +4707,7 @@
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -3355,7 +4718,7 @@
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -3366,7 +4729,7 @@
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -3377,7 +4740,7 @@
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -3388,7 +4751,7 @@
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -3408,7 +4771,7 @@
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -3419,7 +4782,7 @@
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
@@ -3430,7 +4793,7 @@
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
@@ -3441,7 +4804,7 @@
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -3461,7 +4824,7 @@
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -3472,7 +4835,7 @@
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -3483,7 +4846,7 @@
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -3494,7 +4857,7 @@
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -3505,7 +4868,7 @@
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -3516,7 +4879,7 @@
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -3527,7 +4890,7 @@
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -3538,7 +4901,7 @@
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
@@ -3552,4 +4915,1711 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A3017-B9CB-4115-BB3D-475993BEFECB}">
+  <dimension ref="A2:N223"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="5"/>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="5"/>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="5"/>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="9"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="9"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="10"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G177" s="7"/>
+      <c r="H177" s="9"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B184" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="16"/>
+      <c r="N186" s="16"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B191" s="4"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="5"/>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="9"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C201" s="10"/>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C202" s="10"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="10"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="9"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="6"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G216" s="7"/>
+      <c r="H216" s="9"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D218" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E218" s="19"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C223" s="7"/>
+      <c r="D223" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>